--- a/data25092020.xlsx
+++ b/data25092020.xlsx
@@ -9,25 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="23250" windowHeight="14115" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="23250" windowHeight="14115"/>
   </bookViews>
   <sheets>
     <sheet name="comment" sheetId="2" r:id="rId1"/>
     <sheet name="data1" sheetId="1" r:id="rId2"/>
     <sheet name="data2" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data1!$A$1:$B$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">data2!$A$1:$B$37</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="53">
-  <si>
-    <t>зона</t>
-  </si>
-  <si>
-    <t>биотоп</t>
-  </si>
   <si>
     <t>Крот</t>
   </si>
@@ -95,25 +93,10 @@
     <t xml:space="preserve"> Mollusca</t>
   </si>
   <si>
-    <t>лес</t>
-  </si>
-  <si>
     <t>есть</t>
   </si>
   <si>
-    <t>пойма</t>
-  </si>
-  <si>
     <t>нет</t>
-  </si>
-  <si>
-    <t>Фон</t>
-  </si>
-  <si>
-    <t>Буфер</t>
-  </si>
-  <si>
-    <t>Импакт</t>
   </si>
   <si>
     <t>ПП</t>
@@ -123,6 +106,12 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>RZ</t>
   </si>
   <si>
     <t>Точка</t>
@@ -180,6 +169,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Mollusca, все</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>biotop</t>
+  </si>
+  <si>
+    <t>1.imp</t>
+  </si>
+  <si>
+    <t>2.buf</t>
+  </si>
+  <si>
+    <t>3.fon</t>
   </si>
 </sst>
 </file>
@@ -568,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +713,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,93 +725,93 @@
   <sheetData>
     <row r="1" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="Z1" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -882,13 +886,13 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -963,13 +967,13 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -1044,13 +1048,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -1125,13 +1129,13 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -1206,13 +1210,13 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>38</v>
@@ -1287,13 +1291,13 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1368,13 +1372,13 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>17</v>
@@ -1449,13 +1453,13 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>27</v>
@@ -1530,13 +1534,13 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>21</v>
@@ -1611,13 +1615,13 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>23</v>
@@ -1692,13 +1696,13 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>26</v>
@@ -1773,13 +1777,13 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -1854,13 +1858,13 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>25</v>
@@ -1935,13 +1939,13 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>46</v>
@@ -2016,13 +2020,13 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>75</v>
@@ -2097,13 +2101,13 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>32</v>
@@ -2178,13 +2182,13 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D19">
         <v>39</v>
@@ -2259,13 +2263,13 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D20">
         <v>50</v>
@@ -2340,13 +2344,13 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D21">
         <v>64</v>
@@ -2421,13 +2425,13 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D22">
         <v>79</v>
@@ -2502,13 +2506,13 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D23">
         <v>89</v>
@@ -2583,13 +2587,13 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <v>118</v>
@@ -2664,13 +2668,13 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D25">
         <v>121</v>
@@ -2745,13 +2749,13 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>134</v>
@@ -2826,13 +2830,13 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>135</v>
@@ -2907,13 +2911,13 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D28">
         <v>136</v>
@@ -2988,13 +2992,13 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D29">
         <v>48</v>
@@ -3069,13 +3073,13 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D30">
         <v>62</v>
@@ -3150,13 +3154,13 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D31">
         <v>80</v>
@@ -3233,6 +3237,7 @@
       <c r="Z32" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B32"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3241,116 +3246,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="S1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>37</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>39</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>40</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>41</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>42</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>43</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
         <v>44</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AB1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AC1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AD1" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>52</v>
-      </c>
       <c r="AE1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -3439,13 +3444,13 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -3534,13 +3539,13 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>35</v>
@@ -3629,13 +3634,13 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -3724,13 +3729,13 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -3819,13 +3824,13 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>38</v>
@@ -3914,13 +3919,13 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4009,13 +4014,13 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>17</v>
@@ -4104,13 +4109,13 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10">
         <v>27</v>
@@ -4199,13 +4204,13 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>21</v>
@@ -4294,13 +4299,13 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>23</v>
@@ -4389,13 +4394,13 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>26</v>
@@ -4484,13 +4489,13 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -4579,13 +4584,13 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>25</v>
@@ -4674,13 +4679,13 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>46</v>
@@ -4769,13 +4774,13 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>75</v>
@@ -4864,13 +4869,13 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>32</v>
@@ -4959,13 +4964,13 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D19">
         <v>39</v>
@@ -5054,13 +5059,13 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D20">
         <v>50</v>
@@ -5149,13 +5154,13 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D21">
         <v>64</v>
@@ -5244,13 +5249,13 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D22">
         <v>79</v>
@@ -5339,13 +5344,13 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D23">
         <v>89</v>
@@ -5434,13 +5439,13 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <v>118</v>
@@ -5529,13 +5534,13 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D25">
         <v>121</v>
@@ -5624,13 +5629,13 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>134</v>
@@ -5719,13 +5724,13 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>135</v>
@@ -5814,13 +5819,13 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D28">
         <v>136</v>
@@ -5909,13 +5914,13 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D29">
         <v>48</v>
@@ -6004,13 +6009,13 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D30">
         <v>62</v>
@@ -6099,13 +6104,13 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D31">
         <v>80</v>
@@ -6367,6 +6372,7 @@
       <c r="AE37" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B37"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>